--- a/Outputs/PtX_demand_EE.xlsx
+++ b/Outputs/PtX_demand_EE.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -502,17 +502,23 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>9.082503198971148e-05</v>
+      </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1.1449655537161e-10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.850652176654432e-05</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -521,23 +527,17 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>9.082503198971148e-05</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>1.1449655537161e-10</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4.850652176654432e-05</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -556,7 +556,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -575,7 +575,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -583,18 +583,24 @@
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>5.951987479243202e-05</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.730757205598769e-05</v>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>7.693194052591921e-06</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -602,24 +608,18 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="n">
-        <v>5.951987479243202e-05</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.730757205598769e-05</v>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="n">
-        <v>7.693194052591921e-06</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -628,17 +628,27 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>0.001636165311418535</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.882606390480593e-06</v>
+      </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0.0016392156151277</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.556733278696332e-05</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002177464365623002</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -646,28 +656,20 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.001636165311418535</v>
-      </c>
-      <c r="G9" t="n">
-        <v>5.882606390480593e-06</v>
-      </c>
+      <c r="E9" t="n">
+        <v>0.0002970049348188396</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>0.0016392156151277</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.556733278696332e-05</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.002177464365623002</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -676,7 +678,7 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.0002970049348188396</v>
+        <v>0.0001076404163676046</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -688,7 +690,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -697,19 +699,31 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0001076404163676046</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>0.0004641652259788762</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001754297915464235</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5.882606390480593e-06</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.1449655537161e-10</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.001695415330946836</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.556733278696332e-05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002177464365623002</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -718,17 +732,23 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>0.0004366967881524865</v>
+      </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>9.584626307956239e-09</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6.881349660176644e-05</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -737,23 +757,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>0.0004366967881524865</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>9.584626307956239e-09</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6.881349660176644e-05</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -772,7 +786,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -781,17 +795,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1.594077719567545e-10</v>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>2.065273219980239e-11</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -799,14 +817,16 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.0002367686394466318</v>
+      </c>
       <c r="F16" t="n">
-        <v>1.594077719567545e-10</v>
+        <v>3.37213248451954e-05</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>2.065273219980239e-11</v>
+        <v>1.41983412411986e-05</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -814,7 +834,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -822,24 +842,18 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="n">
-        <v>0.0002367686394466318</v>
-      </c>
-      <c r="F17" t="n">
-        <v>3.37213248451954e-05</v>
-      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>1.41983412411986e-05</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -848,17 +862,27 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>0.0007047696184429826</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9.589618898468852e-06</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.0010709142162089</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.320853681627712e-05</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.002463983516709142</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -866,28 +890,20 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>0.0007047696184429826</v>
-      </c>
-      <c r="G19" t="n">
-        <v>9.589618898468852e-06</v>
-      </c>
+      <c r="E19" t="n">
+        <v>0.000295424140406074</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>0.0010709142162089</v>
-      </c>
-      <c r="J19" t="n">
-        <v>4.320853681627712e-05</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.002463983516709142</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -896,7 +912,7 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.000295424140406074</v>
+        <v>0.0004265001570010997</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -908,7 +924,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -917,19 +933,31 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.0004265001570010997</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+        <v>0.0009586929368538056</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.001175187890848437</v>
+      </c>
+      <c r="G21" t="n">
+        <v>9.589618898468852e-06</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.584626307956239e-09</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.001153926074704597</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.320853681627712e-05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.002463983516709142</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -938,17 +966,23 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.0006056041171712137</v>
+      </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>1.624516956572593e-08</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0001092982469662297</v>
+      </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -957,23 +991,17 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="n">
-        <v>0.0006056041171712137</v>
-      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>1.624516956572593e-08</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.0001092982469662297</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -992,7 +1020,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1001,17 +1029,21 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1.448577107678552e-09</v>
+      </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>4.608565549328089e-10</v>
+      </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1019,14 +1051,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.0005637625130154859</v>
+      </c>
       <c r="F26" t="n">
-        <v>1.448577107678552e-09</v>
+        <v>5.71834062520828e-06</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>4.608565549328089e-10</v>
+        <v>4.148322748065358e-06</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1034,7 +1068,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1042,24 +1076,28 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="n">
-        <v>0.0005637625130154859</v>
-      </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>5.71834062520828e-06</v>
-      </c>
-      <c r="G27" t="inlineStr"/>
+        <v>3.021982398372452e-12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.531338325264679e-13</v>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>4.148322748065358e-06</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+        <v>1.824420290111216e-11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.959277376230371e-13</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.688469752281557e-10</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1069,26 +1107,26 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>3.021982398372452e-12</v>
+        <v>6.371611843765214e-05</v>
       </c>
       <c r="G28" t="n">
-        <v>3.531338325264679e-13</v>
+        <v>1.713496530849602e-05</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>1.824420290111216e-11</v>
+        <v>0.0002751207677780113</v>
       </c>
       <c r="J28" t="n">
-        <v>2.959277376230371e-13</v>
+        <v>5.557302063796528e-05</v>
       </c>
       <c r="K28" t="n">
-        <v>1.688469752281557e-10</v>
+        <v>0.003510127756655649</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1096,28 +1134,20 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>6.371611843765214e-05</v>
-      </c>
-      <c r="G29" t="n">
-        <v>1.713496530849602e-05</v>
-      </c>
+      <c r="E29" t="n">
+        <v>0.0002818113349595355</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
-        <v>0.0002751207677780113</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.557302063796528e-05</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.003510127756655649</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1126,7 +1156,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0002818113349595355</v>
+        <v>0.0009826922911579049</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1138,7 +1168,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1147,14 +1177,26 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.0009826922911579049</v>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+        <v>0.001828266139132926</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0006750400278331642</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.713496566162985e-05</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.624516956572593e-08</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.0003885678165930642</v>
+      </c>
+      <c r="J31" t="n">
+        <v>5.557302093389302e-05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.003510127925502624</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Outputs/PtX_demand_EE.xlsx
+++ b/Outputs/PtX_demand_EE.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -609,17 +609,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>0.0003497013861488061</v>
+      </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>3.436751862763012e-05</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -628,27 +632,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="n">
-        <v>0.001636165311418535</v>
-      </c>
-      <c r="G8" t="n">
-        <v>5.882606390480593e-06</v>
-      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>0.0016392156151277</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.556733278696332e-05</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.002177464365623002</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -656,20 +650,30 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="n">
-        <v>0.0002970049348188396</v>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>0.001636165311418535</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5.882606390480593e-06</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0003132736250606</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0016392156151277</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.556733278696332e-05</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002177464365623002</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -677,20 +681,30 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="n">
-        <v>0.0001076404163676046</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>0.01617614087513679</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.142947176255379e-05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.002863152017891</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0102584426004798</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0002152891401867</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.02132334971103646</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -699,75 +713,73 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.0004641652259788762</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.001754297915464235</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.882606390480593e-06</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.1449655537161e-10</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.001695415330946836</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.556733278696332e-05</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.002177464365623002</v>
-      </c>
+        <v>0.0002970049348188396</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="n">
-        <v>0.0004366967881524865</v>
-      </c>
+      <c r="E12" t="n">
+        <v>0.0001076404163676046</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>9.584626307956239e-09</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6.881349660176644e-05</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0.0004641652259788762</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.01828014017674983</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.731207815303437e-05</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.003176425757448155</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.01198822545005427</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0002508564729736633</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.02350081407665946</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -776,17 +788,23 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>0.0004366967881524865</v>
+      </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>9.584626307956239e-09</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.881349660176644e-05</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -795,21 +813,17 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>1.594077719567545e-10</v>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>2.065273219980239e-11</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -817,24 +831,18 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
-        <v>0.0002367686394466318</v>
-      </c>
-      <c r="F16" t="n">
-        <v>3.37213248451954e-05</v>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>1.41983412411986e-05</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -843,17 +851,21 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1.594077719567545e-10</v>
+      </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>2.065273219980239e-11</v>
+      </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -861,28 +873,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.0002367686394466318</v>
+      </c>
       <c r="F18" t="n">
-        <v>0.0007047696184429826</v>
-      </c>
-      <c r="G18" t="n">
-        <v>9.589618898468852e-06</v>
-      </c>
+        <v>3.37213248451954e-05</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>0.0010709142162089</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.320853681627712e-05</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.002463983516709142</v>
-      </c>
+        <v>1.41983412411986e-05</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -890,20 +898,22 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="n">
-        <v>0.000295424140406074</v>
-      </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.0001890745293606341</v>
+      </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>3.621938182632187e-05</v>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Synthetic Liquids</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -911,9 +921,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0.0004265001570010997</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -924,7 +932,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Biogenic Liquids</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -932,20 +940,18 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>0.0009586929368538056</v>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>0.001175187890848437</v>
+        <v>0.0007047696184429826</v>
       </c>
       <c r="G21" t="n">
         <v>9.589618898468852e-06</v>
       </c>
       <c r="H21" t="n">
-        <v>9.584626307956239e-09</v>
+        <v>0.0003813658689076</v>
       </c>
       <c r="I21" t="n">
-        <v>0.001153926074704597</v>
+        <v>0.0010709142162089</v>
       </c>
       <c r="J21" t="n">
         <v>4.320853681627712e-05</v>
@@ -957,40 +963,48 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hydrogen</t>
+          <t>Fossil Liquids</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>0.0006056041171712137</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>0.00436006402907351</v>
+      </c>
+      <c r="G22" t="n">
+        <v>4.453898550539274e-05</v>
+      </c>
       <c r="H22" t="n">
-        <v>1.624516956572593e-08</v>
+        <v>0.0026994173542879</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001092982469662297</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+        <v>0.0045305831688898</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0001910498510613</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.02068552430275745</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Methanol</t>
+          <t>Biomass [Solid]</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.000295424140406074</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1001,15 +1015,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ammonia</t>
+          <t>Renewable Energy Carrier</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.0004265001570010997</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1020,30 +1036,40 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Synthetic Gases</t>
+          <t>Overall Demand</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2050</v>
+        <v>2040</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.0009586929368538056</v>
+      </c>
       <c r="F25" t="n">
-        <v>1.448577107678552e-09</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+        <v>0.005724326449282582</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.412860440386159e-05</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.003080792807821808</v>
+      </c>
       <c r="I25" t="n">
-        <v>4.608565549328089e-10</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>0.00572072862542072</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0002342583878775771</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.02314950781946659</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Biogenic Gases</t>
+          <t>Hydrogen</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1051,16 +1077,16 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="n">
-        <v>0.0005637625130154859</v>
-      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>5.71834062520828e-06</v>
+        <v>0.0006056041171712137</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>1.624516956572593e-08</v>
+      </c>
       <c r="I26" t="n">
-        <v>4.148322748065358e-06</v>
+        <v>0.0001092982469662297</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1068,7 +1094,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Synthetic Liquids</t>
+          <t>Methanol</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1077,27 +1103,17 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>3.021982398372452e-12</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.531338325264679e-13</v>
-      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="n">
-        <v>1.824420290111216e-11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.959277376230371e-13</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1.688469752281557e-10</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Biogenic Liquids</t>
+          <t>Ammonia</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1106,27 +1122,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="n">
-        <v>6.371611843765214e-05</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.713496530849602e-05</v>
-      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>0.0002751207677780113</v>
-      </c>
-      <c r="J28" t="n">
-        <v>5.557302063796528e-05</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.003510127756655649</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biomass [Solid]</t>
+          <t>Synthetic Gases</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1134,20 +1140,22 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="n">
-        <v>0.0002818113349595355</v>
-      </c>
-      <c r="F29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1.448577107678552e-09</v>
+      </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>4.608565549328089e-10</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Renewable Energy Carrier</t>
+          <t>Biogenic Gases</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1156,19 +1164,23 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.0009826922911579049</v>
-      </c>
-      <c r="F30" t="inlineStr"/>
+        <v>0.0005637625130154859</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.71834062520828e-06</v>
+      </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>4.148322748065358e-06</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Overall Demand</t>
+          <t>Fossil Gases</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1176,26 +1188,184 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="n">
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1.157307830130374e-05</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>1.387990866727912e-05</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Synthetic Liquids</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>3.021982398372452e-12</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.531338325264679e-13</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.469299066349851e-11</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.824420290111216e-11</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.959277376230371e-13</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.688469752281557e-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Biogenic Liquids</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>6.371611843765214e-05</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.713496530849602e-05</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.0004995071219427</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.0002751207677780113</v>
+      </c>
+      <c r="J33" t="n">
+        <v>5.557302063796528e-05</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.003510127756655649</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Fossil Liquids</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>0.0002032153415099435</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.017227868407744e-05</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.0024480240244066</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.0008140281851726</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.0001644463307791</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.01928324458791736</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Biomass [Solid]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.0002818113349595355</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Renewable Energy Carrier</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>0.0009826922911579049</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Overall Demand</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>2050</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="n">
         <v>0.001828266139132926</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.0006750400278331642</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.713496566162985e-05</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.624516956572593e-08</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.0003885678165930642</v>
-      </c>
-      <c r="J31" t="n">
-        <v>5.557302093389302e-05</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.003510127925502624</v>
+      <c r="F37" t="n">
+        <v>0.0008898284476444115</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5.730724434570729e-05</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.002947547406211856</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.001216475910432943</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.000220019351712993</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.02279337251341998</v>
       </c>
     </row>
   </sheetData>
